--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R6a08d5ccf1fa4932"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rc1f78dce7d8a4bb7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rc1f78dce7d8a4bb7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R1ffce6de979a40a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R1ffce6de979a40a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R05e5ef394f474e1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R05e5ef394f474e1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R9ae010299359480b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R9ae010299359480b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R770088fe58284bbe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R770088fe58284bbe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R69c07cc334b54e48"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R69c07cc334b54e48"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R06e41c80305347fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R06e41c80305347fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rbb89e3f36eda4f23"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rbb89e3f36eda4f23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Re54fbe6c570a42c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Re54fbe6c570a42c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R454fa6b4b5114528"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R454fa6b4b5114528"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rcade0052c3ac4f4b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,22 +30,22 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rcade0052c3ac4f4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R25070ad94d824ee6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,22 +30,22 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/068_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R25070ad94d824ee6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R67c969221ef2437a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
